--- a/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartSceneConfig@s.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -55,28 +56,55 @@
     <t>string</t>
   </si>
   <si>
-    <t>BenchmarkServer</t>
-  </si>
-  <si>
-    <t>BenchmarkClient</t>
-  </si>
-  <si>
-    <t>BenchmarkClient1</t>
-  </si>
-  <si>
-    <t>BenchmarkClient2</t>
-  </si>
-  <si>
-    <t>BenchmarkClient3</t>
-  </si>
-  <si>
-    <t>BenchmarkClient4</t>
-  </si>
-  <si>
-    <t>BenchmarkClient5</t>
-  </si>
-  <si>
-    <t>BenchmarkClient6</t>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Realm01</t>
+  </si>
+  <si>
+    <t>Realm02</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>RouterManager</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router01</t>
+  </si>
+  <si>
+    <t>Router02</t>
+  </si>
+  <si>
+    <t>Router03</t>
+  </si>
+  <si>
+    <t>Router04</t>
   </si>
 </sst>
 </file>
@@ -1072,24 +1100,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H36"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.1238938053097" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" ht="13.5" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" ht="13.5" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" ht="13.5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1157,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="5">
-        <v>10001</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:8">
@@ -1174,300 +1201,318 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="13.5" spans="3:8">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="3:8">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="3:8">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:8">
+      <c r="C6" s="5">
+        <v>300</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:8">
+      <c r="C7" s="5">
+        <v>301</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5">
+        <v>30301</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:8">
       <c r="C8" s="5">
+        <v>302</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30302</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:8">
       <c r="C9" s="5">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="D9" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="H9" s="5">
+        <v>30303</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="3:8">
       <c r="C10" s="5">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="D10" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="3:8">
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="3:8">
-      <c r="C12" s="5">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="3:8">
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="3:8">
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="3:8">
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="3:8">
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="3:8">
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="3:8">
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="3:8">
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="3:8">
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="3:8">
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="3:8">
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="3:8">
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="3:8">
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="3:8">
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="3:8">
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="3:8">
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="3:8">
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="3:8">
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="3:8">
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="3:8">
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="3:8">
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="3:8">
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="3:8">
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="3:8">
-      <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="3:8">
-      <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="H10" s="5">
+        <v>30304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
